--- a/Results/Calculation/dp-partial-ner-money.xlsx
+++ b/Results/Calculation/dp-partial-ner-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G2">
+        <v>0.85</v>
+      </c>
+      <c r="H2">
+        <v>0.76</v>
+      </c>
+      <c r="I2">
         <v>0.83</v>
-      </c>
-      <c r="H2">
-        <v>0.78</v>
-      </c>
-      <c r="I2">
-        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,22 +461,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="G3">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H3">
         <v>0.82</v>
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="G4">
         <v>0.8100000000000001</v>
       </c>
       <c r="H4">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="I4">
         <v>0.89</v>
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G5">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="I5">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
